--- a/documentation-generator/vocab_csv/gdpr.xlsx
+++ b/documentation-generator/vocab_csv/gdpr.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="507">
   <si>
     <t>Term</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Definition</t>
   </si>
   <si>
     <t>ParentTerm</t>
@@ -46,7 +46,7 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>Usage</t>
   </si>
   <si>
     <t>Source</t>
@@ -79,7 +79,7 @@
     <t>dpv:ExpressedConsent</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>dpv:LegalBasis</t>
   </si>
   <si>
     <t>Consent can be explicit or non-explicit. To express these specifically, see the explicit and non-explicit variations provided for Art.6-1a.</t>
@@ -88,549 +88,546 @@
     <t>(GDPR Art.6-1a,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_a/oj)</t>
   </si>
   <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>A6-1-a-non-explicit-consent</t>
+  </si>
+  <si>
+    <t>Art.6(1-a) regular consent</t>
+  </si>
+  <si>
+    <t>Legal basis based on data subject's given non-explicit express consent to the processing of his or her personal data for one or more specific purposes</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1a,dpv:ExpressedConsent</t>
+  </si>
+  <si>
+    <t>Definition of consent: A data subject's unambigious/clear affirmative action that signifies an agreement to process their personal data (Rigo Wenning) . What is referred to as 'non-explicit consent' here is also termed as 'regular' consent in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)". This is the legal basis that requires consent but not at the level of being 'explicit'.</t>
+  </si>
+  <si>
+    <t>Eva Schlehahn, Bud Bruegger, Harshvardhan J. Pandit, Rigo Wenning</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2022/06/22-dpvcg-minutes.html</t>
+  </si>
+  <si>
+    <t>A6-1-a-explicit-consent</t>
+  </si>
+  <si>
+    <t>Art 6(1-a) explicit consent</t>
+  </si>
+  <si>
+    <t>Legal basis based on data subject's given explicit consent to the processing of his or her personal data for one or more specific purposes</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-a,dpv:ExplicitlyExpressedConsent</t>
+  </si>
+  <si>
+    <t>Valid consent in this case would have requirements for being 'explicit' in addition to requirements defined by A4-11. This is also mentioned in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)"</t>
+  </si>
+  <si>
+    <t>A6-1-b</t>
+  </si>
+  <si>
+    <t>Art 6(1-b) contract</t>
+  </si>
+  <si>
+    <t>Legal basis based on performance of a contract to which the data subject is party or in order to take steps at the request of the data subject prior to entering into a contract</t>
+  </si>
+  <si>
+    <t>dpv:Contract</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1b,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_b/oj)</t>
+  </si>
+  <si>
+    <t>Eva Schlehahn, Bud Bruegger, Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2019/04/05-dpvcg-minutes.html</t>
+  </si>
+  <si>
+    <t>A6-1-b-enter-into-contract</t>
+  </si>
+  <si>
+    <t>Art 6(1-b) enter into contract</t>
+  </si>
+  <si>
+    <t>Legal basis based on taking steps at the request of the data subject prior to entering into a contract</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-b,dpv:EnterIntoContract</t>
+  </si>
+  <si>
+    <t>Georg P Krog</t>
+  </si>
+  <si>
+    <t>A6-1-b-contract-performance</t>
+  </si>
+  <si>
+    <t>Art 6(1-b) contract performance</t>
+  </si>
+  <si>
+    <t>Legal basis based on performance of a contract to which the data subject is party</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-b,dpv:ContractPerformance</t>
+  </si>
+  <si>
+    <t>A6-1-c</t>
+  </si>
+  <si>
+    <t>Art 6(1-c) legal obligation</t>
+  </si>
+  <si>
+    <t>Legal basis based on compliance with a legal obligation to which the controller is subject</t>
+  </si>
+  <si>
+    <t>dpv:LegalObligation</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1c,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_c/oj)</t>
+  </si>
+  <si>
+    <t>A6-1-d</t>
+  </si>
+  <si>
+    <t>Art 6(1-d) protect vital interests</t>
+  </si>
+  <si>
+    <t>Legal basis based on protecting the vital interests of the data subject or of another natural person</t>
+  </si>
+  <si>
+    <t>dpv:VitalInterest</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1d,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_d/oj)</t>
+  </si>
+  <si>
+    <t>A6-1-d-data-subject</t>
+  </si>
+  <si>
+    <t>Art 6(1-d) protect vital interests of data subject</t>
+  </si>
+  <si>
+    <t>Legal basis based on protecting the vital interests of the data subject</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-d,dpv:VitalInterestOfDataSubject</t>
+  </si>
+  <si>
+    <t>A6-1-d-natual-person</t>
+  </si>
+  <si>
+    <t>Art 6(1-d) protect vital interests of natural person</t>
+  </si>
+  <si>
+    <t>Legal basis based on protecting the vital interests of another natural person that is not the data subject</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-d,dpv:VitalInterestOfNaturalPerson</t>
+  </si>
+  <si>
+    <t>A6-1-e</t>
+  </si>
+  <si>
+    <t>Art 6(1-e) public interest or official authority</t>
+  </si>
+  <si>
+    <t>Legal basis based on performance of a task carried out in the public interest or in the exercise of official authority vested in the controller</t>
+  </si>
+  <si>
+    <t>dpv:PublicInterest,dpv:OfficialAuthorityOfController</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1e,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_e/oj)</t>
+  </si>
+  <si>
+    <t>A6-1-e-public-interest</t>
+  </si>
+  <si>
+    <t>Art 6(1-e) public interest</t>
+  </si>
+  <si>
+    <t>Legal basis based on performance of a task carried out in the public interest</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-e,dpv:PublicInterest</t>
+  </si>
+  <si>
+    <t>A6-1-e-official-authority</t>
+  </si>
+  <si>
+    <t>Art 6(1-e) official authority</t>
+  </si>
+  <si>
+    <t>Legal basis based on the exercise of official authority vested in the controller</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-e,dpv:OfficialAuthorityOfController</t>
+  </si>
+  <si>
+    <t>A6-1-f</t>
+  </si>
+  <si>
+    <t>Art 6(1-f) legitimate interest</t>
+  </si>
+  <si>
+    <t>Legal basis based on the purposes of the legitimate interests pursued by the controller or by a third party, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
+  </si>
+  <si>
+    <t>dpv:LegitimateInterest</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1f,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_f/oj)</t>
+  </si>
+  <si>
+    <t>A6-1-f-controller</t>
+  </si>
+  <si>
+    <t>Art 6(1-f) legitimate interest of controller</t>
+  </si>
+  <si>
+    <t>Legal basis based on the purposes of the legitimate interests pursued by the controller, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-f,dpv:LegitimateInterestOfController</t>
+  </si>
+  <si>
+    <t>A6-1-f-third-party</t>
+  </si>
+  <si>
+    <t>Art 6(1-f) legitimate interest of third party</t>
+  </si>
+  <si>
+    <t>Legal basis based on the purposes of the legitimate interests pursued by a third party, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-f,dpv:LegitimateInterestOfThirdParty</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>(TBD: pending clarity)</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
+    <t>A9-2-a</t>
+  </si>
+  <si>
+    <t>Art 9(2-a) explicit consent</t>
+  </si>
+  <si>
+    <t>explicit consent with special categories of data</t>
+  </si>
+  <si>
+    <t>dpv:ExplicitlyExpressedConsent</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2a,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_a/oj)</t>
+  </si>
+  <si>
+    <t>Eva Schlehahn, Bud Bruegger</t>
+  </si>
+  <si>
+    <t>A9-2-b</t>
+  </si>
+  <si>
+    <t>Art 9(2-b) employment, social security, social protection law</t>
+  </si>
+  <si>
+    <t>employment and social security and social protection law</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2b,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_b/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-c</t>
+  </si>
+  <si>
+    <t>Art 9(2-c) protect vital interest</t>
+  </si>
+  <si>
+    <t>protection of the vital interests</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2c,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_c/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-d</t>
+  </si>
+  <si>
+    <t>Art 9(2-d) legitimate activities</t>
+  </si>
+  <si>
+    <t>legitimate activities with appropriate safeguards by a foundation, association or any other not-for-profit body with a political, philosophical, religious or trade union aim and on condition that the processing relates solely to the members or to former members of the body or to persons who have regular contact with it in connection with its purposes and that the personal data are not disclosed outside that body without the consent of the data subjects;</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2d,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_d/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-e</t>
+  </si>
+  <si>
+    <t>Art 9(2-e) data made public</t>
+  </si>
+  <si>
+    <t>data manifestly made public by the data subject</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2e,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_e/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-f</t>
+  </si>
+  <si>
+    <t>Art 9(2-f) judicial process</t>
+  </si>
+  <si>
+    <t>establishment, exercise or defence of legal claims / courts acting in their judicial capacity</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2f,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_f/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-g</t>
+  </si>
+  <si>
+    <t>Art 9(2-g) public interest</t>
+  </si>
+  <si>
+    <t>substantial public interest, on the basis of Union or Member State law</t>
+  </si>
+  <si>
+    <t>dpv:PublicInterest</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2g,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_g/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-h</t>
+  </si>
+  <si>
+    <t>Art 9(2-h) health &amp; medicine</t>
+  </si>
+  <si>
+    <t>preventive or occupational medicine, for the assessment of the working capacity of the employee, medical diagnosis, the provision of health or social care or treatment or the management of health or social care systems and services on the basis of Union or Member State law or pursuant to contract with a health professional and subject to the conditions and safeguards referred to in paragraph 3</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2h,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_h/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-i</t>
+  </si>
+  <si>
+    <t>Art 9(2-i) public interest in public health</t>
+  </si>
+  <si>
+    <t>public interest in public health</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2i,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_i/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-j</t>
+  </si>
+  <si>
+    <t>Art 9(2-j) public interest, scientific research, statistical purpose</t>
+  </si>
+  <si>
+    <t>public interest, scientific or historical research purposes or statistical purposes based on Union or Member State law</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2j,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_j/oj)</t>
+  </si>
+  <si>
+    <t>A45-3</t>
+  </si>
+  <si>
+    <t>Art 45(3) adequacy decision</t>
+  </si>
+  <si>
+    <t>Personal data can flow freely from the EU to a third country with an Adequacy Decision without any further safeguard being necessary.</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has Adequacy Decision.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.45-3,https://eur-lex.europa.eu/eli/reg/2016/679/art_45/par_3/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201104</t>
+  </si>
+  <si>
+    <t>A46-2-a</t>
+  </si>
+  <si>
+    <t>Art 46(2-a) legal instrument</t>
+  </si>
+  <si>
+    <t>A legally binding and enforceable instrument between public authorities or bodies</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Third country has appropriate safeguards. Transfer does not require specific authorisation from a Supervisor Authority.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2a,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_a/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201105</t>
+  </si>
+  <si>
+    <t>A46-2-b</t>
+  </si>
+  <si>
+    <t>Art 46(2-b) Binding Corporate Rules (BCR)</t>
+  </si>
+  <si>
+    <t>Binding corporate rules</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,dpv-gdpr:BindingCorporateRules</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2b,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_b/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201106</t>
+  </si>
+  <si>
+    <t>A46-2-c</t>
+  </si>
+  <si>
+    <t>Art 46(2-c) Standard Contractual Clauses (SCC) by EC</t>
+  </si>
+  <si>
+    <t>Standard data protection clauses adopted by the Commission</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,dpv-gdpr:SCCByCommission</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2c,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_c/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201107</t>
+  </si>
+  <si>
+    <t>A46-2-d</t>
+  </si>
+  <si>
+    <t>Art 46(2-d) Standard Contractual Clauses (SCC) by DPA</t>
+  </si>
+  <si>
+    <t>Standard data protection clauses adopted by a Supervisory Authority</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,dpv-gdpr:SCCBySupervisoryAuthority</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Third country has appropriate safeguards. Transfer does not require specific authorisation from a Supervisor Authority</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2d,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_d/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201108</t>
+  </si>
+  <si>
+    <t>A46-2-e</t>
+  </si>
+  <si>
+    <t>Art 46(2-e) code of conduct</t>
+  </si>
+  <si>
+    <t>An approved code of conduct pursuant to GDPR Article 40 together with binding and enforceable commitments of the controller or processor in the third country to apply the appropriate safeguards, including as regards individuals´ rights</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2e,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_e/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201109</t>
+  </si>
+  <si>
+    <t>A46-2-f</t>
+  </si>
+  <si>
+    <t>Art 46(2-f) certification</t>
+  </si>
+  <si>
+    <t>An approved certification mechanism pursuant to GDPR Article 42 together with binding and enforceable commitments of the controller or processor in the third country to appy the appropriate safeguards, including as regards individuals` rights</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2f,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_f/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201110</t>
+  </si>
+  <si>
+    <t>A46-3-a</t>
+  </si>
+  <si>
+    <t>Art 46(3-a) contractual clauses</t>
+  </si>
+  <si>
+    <t>Contractual clauses with controller, processor or recipient of the personal data in the third country or the international organisation.</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Appropriate safeguards exist. Transfer does requires specific authorisation from a Supervisor Authority.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-3a,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_3/pnt_a/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201111</t>
+  </si>
+  <si>
+    <t>A46-3-b</t>
+  </si>
+  <si>
+    <t>Art 46(3-b) administrative arrangements</t>
+  </si>
+  <si>
+    <t>Provisions to be inserted into administrative arrangements between public authorities or bodies which include enforceable and effective data subject rights</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-3b,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_3/pnt_b/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201112</t>
+  </si>
+  <si>
+    <t>A49-1-a</t>
+  </si>
+  <si>
+    <t>Art 49(1-a) explicit consent</t>
+  </si>
+  <si>
+    <t>The data subject has explicitly consented to the proposed transfer, after having been informed of the possible risks of such transfers for the data subject due to the absence of an adequacy decision and appropriate safeguards.</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,dpv:ExplicitlyExpressedConsent</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Appropriate safeguards do not exist.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.49-1a,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_a/oj)</t>
+  </si>
+  <si>
     <t>changed</t>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit</t>
-  </si>
-  <si>
-    <t>A6-1-a-non-explicit-consent</t>
-  </si>
-  <si>
-    <t>Art.6(1-a) regular consent</t>
-  </si>
-  <si>
-    <t>Legal basis based on data subject's given non-explicit express consent to the processing of his or her personal data for one or more specific purposes</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1a,dpv:ExpressedConsent</t>
-  </si>
-  <si>
-    <t>Definition of consent: A data subject's unambigious/clear affirmative action that signifies an agreement to process their personal data (Rigo Wenning) . What is referred to as 'non-explicit consent' here is also termed as 'regular' consent in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)". This is the legal basis that requires consent but not at the level of being 'explicit'.</t>
-  </si>
-  <si>
-    <t>Eva Schlehahn, Bud Bruegger, Harshvardhan J. Pandit, Rigo Wenning</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2022/06/22-dpvcg-minutes.html</t>
-  </si>
-  <si>
-    <t>A6-1-a-explicit-consent</t>
-  </si>
-  <si>
-    <t>Art 6(1-a) explicit consent</t>
-  </si>
-  <si>
-    <t>Legal basis based on data subject's given explicit consent to the processing of his or her personal data for one or more specific purposes</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-a,dpv:ExplicitlyExpressedConsent</t>
-  </si>
-  <si>
-    <t>Valid consent in this case would have requirements for being 'explicit' in addition to requirements defined by A4-11. This is also mentioned in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)"</t>
-  </si>
-  <si>
-    <t>A6-1-b</t>
-  </si>
-  <si>
-    <t>Art 6(1-b) contract</t>
-  </si>
-  <si>
-    <t>Legal basis based on performance of a contract to which the data subject is party or in order to take steps at the request of the data subject prior to entering into a contract</t>
-  </si>
-  <si>
-    <t>dpv:Contract</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1b,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_b/oj)</t>
-  </si>
-  <si>
-    <t>Eva Schlehahn, Bud Bruegger, Harshvardhan J. Pandit</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2019/04/05-dpvcg-minutes.html</t>
-  </si>
-  <si>
-    <t>A6-1-b-enter-into-contract</t>
-  </si>
-  <si>
-    <t>Art 6(1-b) enter into contract</t>
-  </si>
-  <si>
-    <t>Legal basis based on taking steps at the request of the data subject prior to entering into a contract</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-b,dpv:EnterIntoContract</t>
-  </si>
-  <si>
-    <t>Georg P Krog</t>
-  </si>
-  <si>
-    <t>A6-1-b-contract-performance</t>
-  </si>
-  <si>
-    <t>Art 6(1-b) contract performance</t>
-  </si>
-  <si>
-    <t>Legal basis based on performance of a contract to which the data subject is party</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-b,dpv:ContractPerformance</t>
-  </si>
-  <si>
-    <t>A6-1-c</t>
-  </si>
-  <si>
-    <t>Art 6(1-c) legal obligation</t>
-  </si>
-  <si>
-    <t>Legal basis based on compliance with a legal obligation to which the controller is subject</t>
-  </si>
-  <si>
-    <t>dpv:LegalObligation</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1c,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_c/oj)</t>
-  </si>
-  <si>
-    <t>A6-1-d</t>
-  </si>
-  <si>
-    <t>Art 6(1-d) protect vital interests</t>
-  </si>
-  <si>
-    <t>Legal basis based on protecting the vital interests of the data subject or of another natural person</t>
-  </si>
-  <si>
-    <t>dpv:VitalInterest</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1d,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_d/oj)</t>
-  </si>
-  <si>
-    <t>A6-1-d-data-subject</t>
-  </si>
-  <si>
-    <t>Art 6(1-d) protect vital interests of data subject</t>
-  </si>
-  <si>
-    <t>Legal basis based on protecting the vital interests of the data subject</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-d,dpv:VitalInterestOfDataSubject</t>
-  </si>
-  <si>
-    <t>A6-1-d-natual-person</t>
-  </si>
-  <si>
-    <t>Art 6(1-d) protect vital interests of natural person</t>
-  </si>
-  <si>
-    <t>Legal basis based on protecting the vital interests of another natural person that is not the data subject</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-d,dpv:VitalInterestOfNaturalPerson</t>
-  </si>
-  <si>
-    <t>A6-1-e</t>
-  </si>
-  <si>
-    <t>Art 6(1-e) public interest or official authority</t>
-  </si>
-  <si>
-    <t>Legal basis based on performance of a task carried out in the public interest or in the exercise of official authority vested in the controller</t>
-  </si>
-  <si>
-    <t>dpv:PublicInterest,dpv:OfficialAuthorityOfController</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1e,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_e/oj)</t>
-  </si>
-  <si>
-    <t>A6-1-e-public-interest</t>
-  </si>
-  <si>
-    <t>Art 6(1-e) public interest</t>
-  </si>
-  <si>
-    <t>Legal basis based on performance of a task carried out in the public interest</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-e,dpv:PublicInterest</t>
-  </si>
-  <si>
-    <t>A6-1-e-official-authority</t>
-  </si>
-  <si>
-    <t>Art 6(1-e) official authority</t>
-  </si>
-  <si>
-    <t>Legal basis based on the exercise of official authority vested in the controller</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-e,dpv:OfficialAuthorityOfController</t>
-  </si>
-  <si>
-    <t>A6-1-f</t>
-  </si>
-  <si>
-    <t>Art 6(1-f) legitimate interest</t>
-  </si>
-  <si>
-    <t>Legal basis based on the purposes of the legitimate interests pursued by the controller or by a third party, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
-  </si>
-  <si>
-    <t>dpv:LegitimateInterest</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1f,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_f/oj)</t>
-  </si>
-  <si>
-    <t>A6-1-f-controller</t>
-  </si>
-  <si>
-    <t>Art 6(1-f) legitimate interest of controller</t>
-  </si>
-  <si>
-    <t>Legal basis based on the purposes of the legitimate interests pursued by the controller, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-f,dpv:LegitimateInterestOfController</t>
-  </si>
-  <si>
-    <t>A6-1-f-third-party</t>
-  </si>
-  <si>
-    <t>Art 6(1-f) legitimate interest of third party</t>
-  </si>
-  <si>
-    <t>Legal basis based on the purposes of the legitimate interests pursued by a third party, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-f,dpv:LegitimateInterestOfThirdParty</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>(TBD: pending clarity)</t>
-  </si>
-  <si>
-    <t>proposed</t>
-  </si>
-  <si>
-    <t>A9-2-a</t>
-  </si>
-  <si>
-    <t>Art 9(2-a) explicit consent</t>
-  </si>
-  <si>
-    <t>explicit consent with special categories of data</t>
-  </si>
-  <si>
-    <t>dpv:ExplicitlyExpressedConsent</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2a,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_a/oj)</t>
-  </si>
-  <si>
-    <t>accepted</t>
-  </si>
-  <si>
-    <t>Eva Schlehahn, Bud Bruegger</t>
-  </si>
-  <si>
-    <t>A9-2-b</t>
-  </si>
-  <si>
-    <t>Art 9(2-b) employment, social security, social protection law</t>
-  </si>
-  <si>
-    <t>employment and social security and social protection law</t>
-  </si>
-  <si>
-    <t>dpv:LegalBasis</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2b,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_b/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-c</t>
-  </si>
-  <si>
-    <t>Art 9(2-c) protect vital interest</t>
-  </si>
-  <si>
-    <t>protection of the vital interests</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2c,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_c/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-d</t>
-  </si>
-  <si>
-    <t>Art 9(2-d) legitimate activities</t>
-  </si>
-  <si>
-    <t>legitimate activities with appropriate safeguards by a foundation, association or any other not-for-profit body with a political, philosophical, religious or trade union aim and on condition that the processing relates solely to the members or to former members of the body or to persons who have regular contact with it in connection with its purposes and that the personal data are not disclosed outside that body without the consent of the data subjects;</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2d,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_d/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-e</t>
-  </si>
-  <si>
-    <t>Art 9(2-e) data made public</t>
-  </si>
-  <si>
-    <t>data manifestly made public by the data subject</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2e,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_e/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-f</t>
-  </si>
-  <si>
-    <t>Art 9(2-f) judicial process</t>
-  </si>
-  <si>
-    <t>establishment, exercise or defence of legal claims / courts acting in their judicial capacity</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2f,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_f/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-g</t>
-  </si>
-  <si>
-    <t>Art 9(2-g) public interest</t>
-  </si>
-  <si>
-    <t>substantial public interest, on the basis of Union or Member State law</t>
-  </si>
-  <si>
-    <t>dpv:PublicInterest</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2g,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_g/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-h</t>
-  </si>
-  <si>
-    <t>Art 9(2-h) health &amp; medicine</t>
-  </si>
-  <si>
-    <t>preventive or occupational medicine, for the assessment of the working capacity of the employee, medical diagnosis, the provision of health or social care or treatment or the management of health or social care systems and services on the basis of Union or Member State law or pursuant to contract with a health professional and subject to the conditions and safeguards referred to in paragraph 3</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2h,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_h/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-i</t>
-  </si>
-  <si>
-    <t>Art 9(2-i) public interest in public health</t>
-  </si>
-  <si>
-    <t>public interest in public health</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2i,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_i/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-j</t>
-  </si>
-  <si>
-    <t>Art 9(2-j) public interest, scientific research, statistical purpose</t>
-  </si>
-  <si>
-    <t>public interest, scientific or historical research purposes or statistical purposes based on Union or Member State law</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2j,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_j/oj)</t>
-  </si>
-  <si>
-    <t>A45-3</t>
-  </si>
-  <si>
-    <t>Art 45(3) adequacy decision</t>
-  </si>
-  <si>
-    <t>Personal data can flow freely from the EU to a third country with an Adequacy Decision without any further safeguard being necessary.</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has Adequacy Decision.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.45-3,https://eur-lex.europa.eu/eli/reg/2016/679/art_45/par_3/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201104</t>
-  </si>
-  <si>
-    <t>A46-2-a</t>
-  </si>
-  <si>
-    <t>Art 46(2-a) legal instrument</t>
-  </si>
-  <si>
-    <t>A legally binding and enforceable instrument between public authorities or bodies</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Third country has appropriate safeguards. Transfer does not require specific authorisation from a Supervisor Authority.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2a,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_a/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201105</t>
-  </si>
-  <si>
-    <t>A46-2-b</t>
-  </si>
-  <si>
-    <t>Art 46(2-b) Binding Corporate Rules (BCR)</t>
-  </si>
-  <si>
-    <t>Binding corporate rules</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,dpv-gdpr:BindingCorporateRules</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2b,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_b/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201106</t>
-  </si>
-  <si>
-    <t>A46-2-c</t>
-  </si>
-  <si>
-    <t>Art 46(2-c) Standard Contractual Clauses (SCC) by EC</t>
-  </si>
-  <si>
-    <t>Standard data protection clauses adopted by the Commission</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,dpv-gdpr:SCCByCommission</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2c,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_c/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201107</t>
-  </si>
-  <si>
-    <t>A46-2-d</t>
-  </si>
-  <si>
-    <t>Art 46(2-d) Standard Contractual Clauses (SCC) by DPA</t>
-  </si>
-  <si>
-    <t>Standard data protection clauses adopted by a Supervisory Authority</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,dpv-gdpr:SCCBySupervisoryAuthority</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Third country has appropriate safeguards. Transfer does not require specific authorisation from a Supervisor Authority</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2d,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_d/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201108</t>
-  </si>
-  <si>
-    <t>A46-2-e</t>
-  </si>
-  <si>
-    <t>Art 46(2-e) code of conduct</t>
-  </si>
-  <si>
-    <t>An approved code of conduct pursuant to GDPR Article 40 together with binding and enforceable commitments of the controller or processor in the third country to apply the appropriate safeguards, including as regards individuals´ rights</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2e,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_e/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201109</t>
-  </si>
-  <si>
-    <t>A46-2-f</t>
-  </si>
-  <si>
-    <t>Art 46(2-f) certification</t>
-  </si>
-  <si>
-    <t>An approved certification mechanism pursuant to GDPR Article 42 together with binding and enforceable commitments of the controller or processor in the third country to appy the appropriate safeguards, including as regards individuals` rights</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2f,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_f/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201110</t>
-  </si>
-  <si>
-    <t>A46-3-a</t>
-  </si>
-  <si>
-    <t>Art 46(3-a) contractual clauses</t>
-  </si>
-  <si>
-    <t>Contractual clauses with controller, processor or recipient of the personal data in the third country or the international organisation.</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Appropriate safeguards exist. Transfer does requires specific authorisation from a Supervisor Authority.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-3a,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_3/pnt_a/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201111</t>
-  </si>
-  <si>
-    <t>A46-3-b</t>
-  </si>
-  <si>
-    <t>Art 46(3-b) administrative arrangements</t>
-  </si>
-  <si>
-    <t>Provisions to be inserted into administrative arrangements between public authorities or bodies which include enforceable and effective data subject rights</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-3b,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_3/pnt_b/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201112</t>
-  </si>
-  <si>
-    <t>A49-1-a</t>
-  </si>
-  <si>
-    <t>Art 49(1-a) explicit consent</t>
-  </si>
-  <si>
-    <t>The data subject has explicitly consented to the proposed transfer, after having been informed of the possible risks of such transfers for the data subject due to the absence of an adequacy decision and appropriate safeguards.</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,dpv:ExplicitlyExpressedConsent</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Appropriate safeguards do not exist.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.49-1a,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_a/oj)</t>
-  </si>
-  <si>
     <t>A49-1-b</t>
   </si>
   <si>
@@ -766,6 +763,9 @@
     <t>dpv:DataSubjectRight</t>
   </si>
   <si>
+    <t>dpv:Right</t>
+  </si>
+  <si>
     <t>(GDPR Art.13,https://eur-lex.europa.eu/eli/reg/2016/679/art_13/oj)</t>
   </si>
   <si>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>dpv:RightFulfilmentNotice</t>
+  </si>
+  <si>
+    <t>dpv:OrganisationalMeasure</t>
   </si>
   <si>
     <t>IndirectDataCollectionNotice</t>
@@ -1119,9 +1122,6 @@
   </si>
   <si>
     <t>A legal instrument or tool intended to assist or justify data transfers</t>
-  </si>
-  <si>
-    <t>dpv:TechnicalOrganisationalMeasure</t>
   </si>
   <si>
     <r>
@@ -1212,9 +1212,6 @@
     <t>Supplementary measures are intended to additionally provide safeguards or guarentees to bring the resulting protection in line with EU requirements</t>
   </si>
   <si>
-    <t>dpv-gdpr:DataTransferTool,dpv:TechnicalOrganisationalMeasure</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF000000"/>
@@ -1276,6 +1273,9 @@
     <t>dpv:AuditStatus</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>DPIARequired</t>
   </si>
   <si>
@@ -1286,9 +1286,6 @@
   </si>
   <si>
     <t>dpv-gdpr:DPIANecessityStatus</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>DPIANotRequired</t>
@@ -2412,6 +2409,19 @@
         <v>23</v>
       </c>
       <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
@@ -2453,6 +2463,19 @@
       <c r="O3" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -2494,6 +2517,19 @@
       <c r="O4" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
@@ -2533,6 +2569,19 @@
       <c r="O5" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
@@ -2572,6 +2621,19 @@
       <c r="O6" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
@@ -2611,6 +2673,19 @@
       <c r="O7" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
@@ -2650,6 +2725,19 @@
       <c r="O8" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
@@ -2689,6 +2777,19 @@
       <c r="O9" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
@@ -2728,6 +2829,19 @@
       <c r="O10" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
@@ -2767,6 +2881,19 @@
       <c r="O11" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
@@ -2806,6 +2933,19 @@
       <c r="O12" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
@@ -2845,6 +2985,19 @@
       <c r="O13" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
@@ -2884,6 +3037,19 @@
       <c r="O14" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
@@ -2923,6 +3089,19 @@
       <c r="O15" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
@@ -2962,6 +3141,19 @@
       <c r="O16" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
@@ -3001,6 +3193,19 @@
       <c r="O17" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
@@ -3146,7 +3351,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C2" s="34"/>
       <c r="J2" s="42"/>
@@ -3155,14 +3360,14 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="34"/>
-      <c r="D3" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
+        <v>500</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -3193,14 +3398,14 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
+        <v>500</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -3231,14 +3436,14 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="E5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
+        <v>500</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -3274,21 +3479,21 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K7" s="13"/>
       <c r="O7" s="42"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="E8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
+        <v>505</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -3319,14 +3524,14 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="E9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
+        <v>505</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -3483,10 +3688,10 @@
         <v>44447.0</v>
       </c>
       <c r="M2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>42</v>
@@ -3507,17 +3712,15 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
@@ -3526,17 +3729,17 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K3" s="13">
         <v>43560.0</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>42</v>
@@ -3557,13 +3760,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>60</v>
@@ -3576,7 +3779,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K4" s="13">
         <v>43560.0</v>
@@ -3585,10 +3788,10 @@
         <v>44447.0</v>
       </c>
       <c r="M4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>42</v>
@@ -3609,13 +3812,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>86</v>
@@ -3628,7 +3831,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K5" s="13">
         <v>43560.0</v>
@@ -3637,10 +3840,10 @@
         <v>44447.0</v>
       </c>
       <c r="M5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>42</v>
@@ -3661,17 +3864,15 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
@@ -3680,17 +3881,17 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6" s="13">
         <v>43560.0</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>42</v>
@@ -3711,17 +3912,15 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
@@ -3730,17 +3929,17 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K7" s="13">
         <v>43560.0</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>42</v>
@@ -3761,16 +3960,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
@@ -3780,7 +3979,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K8" s="13">
         <v>43560.0</v>
@@ -3789,10 +3988,10 @@
         <v>44447.0</v>
       </c>
       <c r="M8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>42</v>
@@ -3813,17 +4012,15 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
@@ -3832,17 +4029,17 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K9" s="13">
         <v>43560.0</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>42</v>
@@ -3863,16 +4060,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -3882,7 +4079,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K10" s="13">
         <v>43560.0</v>
@@ -3891,10 +4088,10 @@
         <v>44447.0</v>
       </c>
       <c r="M10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>42</v>
@@ -3915,16 +4112,16 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>142</v>
-      </c>
       <c r="D11" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>19</v>
@@ -3934,7 +4131,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K11" s="21">
         <v>43560.0</v>
@@ -3943,10 +4140,10 @@
         <v>44447.0</v>
       </c>
       <c r="M11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>42</v>
@@ -4062,16 +4259,16 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>19</v>
@@ -4080,10 +4277,10 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K2" s="21">
         <v>44139.0</v>
@@ -4092,13 +4289,13 @@
         <v>44447.0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
@@ -4116,16 +4313,16 @@
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>153</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -4134,10 +4331,10 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K3" s="21">
         <v>44139.0</v>
@@ -4146,13 +4343,13 @@
         <v>44447.0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -4170,16 +4367,16 @@
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -4188,10 +4385,10 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K4" s="21">
         <v>44139.0</v>
@@ -4200,13 +4397,13 @@
         <v>44447.0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
@@ -4224,16 +4421,16 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
@@ -4242,10 +4439,10 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K5" s="21">
         <v>44139.0</v>
@@ -4254,13 +4451,13 @@
         <v>44447.0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N5" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
@@ -4278,16 +4475,16 @@
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>172</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -4296,10 +4493,10 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K6" s="21">
         <v>44139.0</v>
@@ -4308,13 +4505,13 @@
         <v>44447.0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N6" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
@@ -4332,16 +4529,16 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>178</v>
-      </c>
       <c r="D7" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
@@ -4350,10 +4547,10 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K7" s="21">
         <v>44139.0</v>
@@ -4362,13 +4559,13 @@
         <v>44447.0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N7" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
@@ -4386,16 +4583,16 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>183</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
@@ -4404,10 +4601,10 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K8" s="21">
         <v>44139.0</v>
@@ -4416,13 +4613,13 @@
         <v>44447.0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
@@ -4440,16 +4637,16 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>188</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
@@ -4458,10 +4655,10 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K9" s="21">
         <v>44139.0</v>
@@ -4470,13 +4667,13 @@
         <v>44447.0</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N9" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
@@ -4494,16 +4691,16 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -4512,10 +4709,10 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K10" s="21">
         <v>44139.0</v>
@@ -4524,13 +4721,13 @@
         <v>44447.0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
@@ -4548,16 +4745,16 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>200</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>19</v>
@@ -4566,10 +4763,10 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K11" s="21">
         <v>44139.0</v>
@@ -4578,7 +4775,7 @@
         <v>44734.0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>47</v>
@@ -4602,16 +4799,16 @@
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>19</v>
@@ -4620,10 +4817,10 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K12" s="21">
         <v>44139.0</v>
@@ -4632,13 +4829,13 @@
         <v>44447.0</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N12" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
@@ -4656,16 +4853,16 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>211</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>19</v>
@@ -4674,10 +4871,10 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K13" s="21">
         <v>44139.0</v>
@@ -4686,13 +4883,13 @@
         <v>44447.0</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
@@ -4710,16 +4907,16 @@
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>19</v>
@@ -4728,10 +4925,10 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K14" s="21">
         <v>44139.0</v>
@@ -4740,13 +4937,13 @@
         <v>44447.0</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N14" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
@@ -4764,16 +4961,16 @@
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>222</v>
-      </c>
       <c r="D15" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>19</v>
@@ -4782,10 +4979,10 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K15" s="21">
         <v>44139.0</v>
@@ -4794,13 +4991,13 @@
         <v>44447.0</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N15" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
@@ -4818,16 +5015,16 @@
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>19</v>
@@ -4836,10 +5033,10 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K16" s="21">
         <v>44139.0</v>
@@ -4848,13 +5045,13 @@
         <v>44447.0</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -4872,16 +5069,16 @@
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>233</v>
-      </c>
       <c r="D17" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>19</v>
@@ -4890,10 +5087,10 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>235</v>
       </c>
       <c r="K17" s="21">
         <v>44139.0</v>
@@ -4902,13 +5099,13 @@
         <v>44447.0</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -4926,16 +5123,16 @@
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>19</v>
@@ -4944,10 +5141,10 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="J18" s="24" t="s">
         <v>241</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>242</v>
       </c>
       <c r="K18" s="21">
         <v>44139.0</v>
@@ -4956,13 +5153,13 @@
         <v>44447.0</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
@@ -5065,19 +5262,19 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -5091,13 +5288,13 @@
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
@@ -5128,10 +5325,10 @@
         <v>252</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
@@ -5145,13 +5342,13 @@
       </c>
       <c r="L3" s="30"/>
       <c r="M3" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
@@ -5182,10 +5379,10 @@
         <v>256</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -5199,13 +5396,13 @@
       </c>
       <c r="L4" s="30"/>
       <c r="M4" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -5236,10 +5433,10 @@
         <v>260</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5253,13 +5450,13 @@
       </c>
       <c r="L5" s="30"/>
       <c r="M5" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N5" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
@@ -5290,10 +5487,10 @@
         <v>264</v>
       </c>
       <c r="D6" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -5307,13 +5504,13 @@
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
@@ -5344,10 +5541,10 @@
         <v>268</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -5361,13 +5558,13 @@
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
@@ -5398,10 +5595,10 @@
         <v>272</v>
       </c>
       <c r="D8" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -5415,13 +5612,13 @@
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N8" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
@@ -5452,10 +5649,10 @@
         <v>276</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -5469,13 +5666,13 @@
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N9" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
@@ -5506,10 +5703,10 @@
         <v>280</v>
       </c>
       <c r="D10" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
@@ -5523,13 +5720,13 @@
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N10" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
@@ -5560,10 +5757,10 @@
         <v>284</v>
       </c>
       <c r="D11" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -5577,13 +5774,13 @@
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N11" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
@@ -5614,10 +5811,10 @@
         <v>288</v>
       </c>
       <c r="D12" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
@@ -5631,13 +5828,13 @@
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N12" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
@@ -5668,10 +5865,10 @@
         <v>292</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -5685,13 +5882,13 @@
       </c>
       <c r="L13" s="30"/>
       <c r="M13" s="26" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N13" s="26" t="s">
         <v>249</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
@@ -5734,7 +5931,7 @@
         <v>298</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -5746,7 +5943,7 @@
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N16" s="34" t="s">
         <v>249</v>
@@ -5772,19 +5969,19 @@
     </row>
     <row r="17">
       <c r="A17" s="35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>298</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -5796,7 +5993,7 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>249</v>
@@ -5822,19 +6019,19 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>298</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -5846,7 +6043,7 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N18" s="34" t="s">
         <v>249</v>
@@ -5872,11 +6069,11 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K19" s="36">
         <v>44874.0</v>
@@ -5887,11 +6084,11 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K20" s="36">
         <v>44874.0</v>
@@ -5902,11 +6099,11 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K21" s="36">
         <v>44874.0</v>
@@ -5917,19 +6114,19 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>298</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -5941,7 +6138,7 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N22" s="34" t="s">
         <v>249</v>
@@ -5967,13 +6164,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -5987,7 +6184,7 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N23" s="34" t="s">
         <v>249</v>
@@ -6013,11 +6210,11 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K24" s="36">
         <v>44874.0</v>
@@ -6028,29 +6225,29 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28">
@@ -9021,10 +9218,10 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>250</v>
@@ -9065,37 +9262,37 @@
         <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -9103,37 +9300,37 @@
         <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
@@ -9141,37 +9338,37 @@
         <v>31</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="K4" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5">
@@ -9179,37 +9376,37 @@
         <v>36</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="K5" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6">
@@ -9217,37 +9414,37 @@
         <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="K6" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7">
@@ -9255,37 +9452,37 @@
         <v>48</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="K7" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>324</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -9295,37 +9492,37 @@
         <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="H8" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="9">
@@ -9333,37 +9530,37 @@
         <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H9" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="K9" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="10">
@@ -9371,37 +9568,37 @@
         <v>62</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="11">
@@ -9409,37 +9606,37 @@
         <v>66</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="K11" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="12">
@@ -9447,37 +9644,37 @@
         <v>70</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="H12" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="J12" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K12" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="13">
@@ -9485,37 +9682,37 @@
         <v>75</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="H13" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="J13" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K13" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="14">
@@ -9523,37 +9720,37 @@
         <v>79</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="H14" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="J14" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K14" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="15">
@@ -9561,37 +9758,37 @@
         <v>83</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H15" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="J15" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K15" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="16">
@@ -9599,37 +9796,37 @@
         <v>88</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="J16" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K16" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="17">
@@ -9637,37 +9834,37 @@
         <v>92</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H17" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="J17" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K17" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -9755,39 +9952,39 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>19</v>
+        <v>330</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K2" s="13">
         <v>44461.0</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -9805,39 +10002,39 @@
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>336</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="39" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K3" s="13">
         <v>44461.0</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -9855,39 +10052,39 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
+        <v>336</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="38" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K4" s="13">
         <v>44461.0</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -9905,39 +10102,39 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
+        <v>336</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="38" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K5" s="13">
         <v>44461.0</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -9955,19 +10152,17 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>19</v>
+      <c r="D6" s="11"/>
+      <c r="E6" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -9979,15 +10174,17 @@
       <c r="K6" s="13">
         <v>44461.0</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="13">
+        <v>45229.0</v>
+      </c>
       <c r="M6" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>351</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -10016,28 +10213,28 @@
       <c r="D7" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
+      <c r="E7" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K7" s="13">
         <v>44461.0</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -10066,28 +10263,28 @@
       <c r="D8" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
+      <c r="E8" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K8" s="13">
         <v>44461.0</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -10116,8 +10313,8 @@
       <c r="D9" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>19</v>
+      <c r="E9" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -10131,13 +10328,13 @@
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -10164,30 +10361,30 @@
         <v>366</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>19</v>
+        <v>336</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K10" s="13">
         <v>44461.0</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -10308,19 +10505,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>373</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -10332,7 +10529,7 @@
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>23</v>
@@ -10356,19 +10553,19 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -10380,7 +10577,7 @@
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>23</v>
@@ -10404,19 +10601,19 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>379</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -10428,7 +10625,7 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>23</v>
@@ -10464,19 +10661,19 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -10488,7 +10685,7 @@
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>23</v>
@@ -10520,11 +10717,9 @@
       <c r="C7" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -10536,7 +10731,7 @@
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>23</v>
@@ -10560,19 +10755,17 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -10584,7 +10777,7 @@
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>23</v>
@@ -10620,19 +10813,19 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>394</v>
-      </c>
       <c r="D10" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -10644,7 +10837,7 @@
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>23</v>
@@ -10668,19 +10861,17 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="C11" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -10692,7 +10883,7 @@
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>23</v>
@@ -10716,19 +10907,17 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>398</v>
-      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -10740,7 +10929,7 @@
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>23</v>
@@ -10764,19 +10953,17 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>398</v>
-      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="10" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -10788,7 +10975,7 @@
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>23</v>
@@ -10823,19 +11010,19 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>407</v>
-      </c>
       <c r="D15" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -10847,7 +11034,7 @@
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>23</v>
@@ -10871,19 +11058,17 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="10" t="s">
         <v>410</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -10895,7 +11080,7 @@
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>23</v>
@@ -10919,19 +11104,17 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>411</v>
-      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -10943,7 +11126,7 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>23</v>
@@ -10967,19 +11150,17 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>388</v>
+      <c r="D18" s="11"/>
+      <c r="E18" s="34" t="s">
+        <v>410</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -11013,19 +11194,17 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>411</v>
-      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -11037,7 +11216,7 @@
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>23</v>
@@ -11071,19 +11250,19 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>423</v>
-      </c>
       <c r="D21" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -11095,10 +11274,10 @@
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -11117,19 +11296,17 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="10" t="s">
         <v>427</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -11141,10 +11318,10 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -11163,19 +11340,17 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>428</v>
-      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="10" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -11187,10 +11362,10 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -11219,19 +11394,19 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>435</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>19</v>
+        <v>383</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -11243,10 +11418,10 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -11265,19 +11440,17 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -11289,10 +11462,10 @@
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -11311,19 +11484,17 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>439</v>
-      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -11335,10 +11506,10 @@
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -11425,13 +11596,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -11463,13 +11634,13 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>446</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>447</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="45"/>
@@ -11481,7 +11652,7 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
@@ -11501,13 +11672,13 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>448</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>449</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="45"/>
@@ -11519,7 +11690,7 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -11539,13 +11710,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>450</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>451</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -11557,7 +11728,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -11577,13 +11748,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>452</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>453</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -11595,7 +11766,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="42"/>
@@ -11615,13 +11786,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>454</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>455</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -11633,7 +11804,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
       <c r="M6" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -11653,13 +11824,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>456</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>457</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -11671,7 +11842,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -11691,13 +11862,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>458</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>459</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -11709,7 +11880,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -11729,13 +11900,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>460</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>461</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -11747,7 +11918,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -11767,13 +11938,13 @@
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>462</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>463</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="28"/>
@@ -11785,7 +11956,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="28"/>
       <c r="M10" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
@@ -11805,13 +11976,13 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>464</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>465</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -11823,7 +11994,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="11"/>
       <c r="M11" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="26"/>
@@ -11843,13 +12014,13 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>466</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>467</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -11861,7 +12032,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -11881,13 +12052,13 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>468</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>469</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -11899,7 +12070,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -11919,13 +12090,13 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>470</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>471</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -11937,7 +12108,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -11957,13 +12128,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>472</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>473</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -11975,7 +12146,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -11995,13 +12166,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" s="46" t="s">
         <v>474</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>475</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -12013,7 +12184,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -12033,13 +12204,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>476</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>477</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -12051,7 +12222,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -15082,7 +15253,7 @@
     </row>
     <row r="2">
       <c r="A2" s="47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -15116,19 +15287,17 @@
     </row>
     <row r="3">
       <c r="A3" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>480</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="53" t="s">
         <v>481</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>482</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
@@ -15140,7 +15309,7 @@
       </c>
       <c r="L3" s="55"/>
       <c r="M3" s="53" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N3" s="58" t="s">
         <v>23</v>
@@ -15164,19 +15333,19 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>483</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="C4" s="54" t="s">
         <v>484</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>486</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>388</v>
+      <c r="E4" s="53" t="s">
+        <v>481</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -15188,7 +15357,7 @@
       </c>
       <c r="L4" s="55"/>
       <c r="M4" s="53" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>23</v>
@@ -15212,19 +15381,19 @@
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>487</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="C5" s="54" t="s">
         <v>488</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>489</v>
-      </c>
       <c r="D5" s="53" t="s">
-        <v>486</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>388</v>
+        <v>485</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>481</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
@@ -15236,7 +15405,7 @@
       </c>
       <c r="L5" s="55"/>
       <c r="M5" s="53" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N5" s="58" t="s">
         <v>23</v>
@@ -15260,19 +15429,19 @@
     </row>
     <row r="6">
       <c r="A6" s="53" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="C6" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>492</v>
-      </c>
       <c r="D6" s="53" t="s">
-        <v>486</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>388</v>
+        <v>485</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>481</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
@@ -15284,7 +15453,7 @@
       </c>
       <c r="L6" s="55"/>
       <c r="M6" s="53" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N6" s="58" t="s">
         <v>23</v>
@@ -15313,13 +15482,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>494</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>495</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -15355,13 +15524,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="C9" s="10" t="s">
         <v>497</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>498</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
